--- a/графики.xlsx
+++ b/графики.xlsx
@@ -9,6 +9,13 @@
   <sheets>
     <sheet name="Аркуш1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">Аркуш1!$A$37:$A$58</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Аркуш1!$B$36</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Аркуш1!$B$37:$B$58</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Аркуш1!$C$36</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">Аркуш1!$C$37:$C$58</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -16,6 +23,62 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="17">
+  <si>
+    <t>Наївний Баєс</t>
+  </si>
+  <si>
+    <t>SVM</t>
+  </si>
+  <si>
+    <t>Словник</t>
+  </si>
+  <si>
+    <t>Емотікон</t>
+  </si>
+  <si>
+    <t>Загальний</t>
+  </si>
+  <si>
+    <t>Перерва</t>
+  </si>
+  <si>
+    <t>Хвилина</t>
+  </si>
+  <si>
+    <t>Ліверпуль</t>
+  </si>
+  <si>
+    <t>Реал Мадрид</t>
+  </si>
+  <si>
+    <t>травма салаха</t>
+  </si>
+  <si>
+    <t>замена салаха</t>
+  </si>
+  <si>
+    <t>гол с офсайда</t>
+  </si>
+  <si>
+    <t>гол бензема</t>
+  </si>
+  <si>
+    <t>гол</t>
+  </si>
+  <si>
+    <t>штанга у мане</t>
+  </si>
+  <si>
+    <t>2гол бейла</t>
+  </si>
+  <si>
+    <t>Фінал</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -49,11 +112,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -68,10 +132,3411 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU" sz="1800" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Результати роботи аналізатора</a:t>
+            </a:r>
+            <a:endParaRPr lang="ru-RU">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="ru-RU"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Аркуш1!$A$1:$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Емотікон</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Словник</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>SVM</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Наївний Баєс</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Загальний</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Аркуш1!$B$1:$B$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>27.4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>66.099999999999994</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>61.8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>58.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>70.400000000000006</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4599-4455-8F75-84F5E0CC9E60}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="949020415"/>
+        <c:axId val="949019999"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="949020415"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="949019999"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="949019999"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="100"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="949020415"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU"/>
+              <a:t>Класифікація текстів з емотіконами</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="ru-RU"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Аркуш1!$A$11:$A$15</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Емотікон</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Словник</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>SVM</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Наївний Баєс</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Загальний</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Аркуш1!$B$11:$B$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>74.400000000000006</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>62.6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>57.8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>75.2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4EBE-4160-847D-4D90A3DF0777}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="949016255"/>
+        <c:axId val="949016671"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="949016255"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="949016671"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="949016671"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="100"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="949016255"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="4.1505797145113231E-2"/>
+          <c:y val="0.14159394184536264"/>
+          <c:w val="0.94589908893861507"/>
+          <c:h val="0.65537843581737465"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Аркуш1!$B$36</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Реал Мадрид</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="38100" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="7030A0"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="7030A0"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-2.548361771117363E-2"/>
+                  <c:y val="4.0059275943046209E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000007-4722-4949-82AE-C22E21E2997D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-2.8759146979962028E-2"/>
+                  <c:y val="4.0059275943046209E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000004-4722-4949-82AE-C22E21E2997D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="5"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-2.548361771117363E-2"/>
+                  <c:y val="3.6979565270951489E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000009-4722-4949-82AE-C22E21E2997D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="14"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-2.3845853076779437E-2"/>
+                  <c:y val="7.0856382663993384E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000B-4722-4949-82AE-C22E21E2997D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="ru-RU"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Аркуш1!$A$37:$A$58</c:f>
+              <c:strCache>
+                <c:ptCount val="22"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Перерва</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>Фінал</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Аркуш1!$B$37:$B$58</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="22"/>
+                <c:pt idx="0">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>86</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4722-4949-82AE-C22E21E2997D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Аркуш1!$C$36</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Ліверпуль</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="38100" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="C00000"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="C00000"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-2.548361771117363E-2"/>
+                  <c:y val="-4.6218697287235641E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000006-4722-4949-82AE-C22E21E2997D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-2.3845853076779437E-2"/>
+                  <c:y val="-4.6218697287235697E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000005-4722-4949-82AE-C22E21E2997D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="5"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-2.3845853076779437E-2"/>
+                  <c:y val="-4.0059275943046209E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000008-4722-4949-82AE-C22E21E2997D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="13"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-2.3845853076779437E-2"/>
+                  <c:y val="-3.6979565270951489E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000A-4722-4949-82AE-C22E21E2997D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="14"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-2.2208088442385244E-2"/>
+                  <c:y val="-4.0059275943046209E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000C-4722-4949-82AE-C22E21E2997D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="ru-RU"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="b"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Аркуш1!$A$37:$A$58</c:f>
+              <c:strCache>
+                <c:ptCount val="22"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Перерва</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>Фінал</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Аркуш1!$C$37:$C$58</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="22"/>
+                <c:pt idx="0">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>49</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-4722-4949-82AE-C22E21E2997D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="t"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="332965551"/>
+        <c:axId val="315660591"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="332965551"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="rnd" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="315660591"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="315660591"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="100"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="332965551"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.32132110597049068"/>
+          <c:y val="4.0168157052634434E-2"/>
+          <c:w val="0.35455243514919671"/>
+          <c:h val="6.5753816924898456E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="235">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" b="0" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="38100" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="8"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="major">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="2000" b="0" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>409574</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>366711</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Диаграмма 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Диаграмма 5"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>-1</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>89647</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>493060</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>22411</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Диаграмма 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Стандартная">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -109,12 +3574,12 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Стандартная">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic Light"/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="等线 Light"/>
         <a:font script="Hant" typeface="新細明體"/>
@@ -149,7 +3614,7 @@
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic"/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="等线"/>
         <a:font script="Hant" typeface="新細明體"/>
@@ -181,7 +3646,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Стандартная">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -331,12 +3796,574 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D58"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="N35" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="T56" sqref="T56"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="31.85546875" customWidth="1"/>
+    <col min="2" max="2" width="15.5703125" customWidth="1"/>
+    <col min="3" max="3" width="20" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1">
+        <v>27.4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>66.099999999999994</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>61.8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4">
+        <v>58.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>70.400000000000006</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11">
+        <v>74.400000000000006</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B12">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>1</v>
+      </c>
+      <c r="B13">
+        <v>62.6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14">
+        <v>57.8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15">
+        <v>75.2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>100</v>
+      </c>
+      <c r="B25">
+        <v>18.399999999999999</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>250</v>
+      </c>
+      <c r="B26">
+        <v>52.3</v>
+      </c>
+      <c r="C26" s="1">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>500</v>
+      </c>
+      <c r="B27">
+        <v>94.6</v>
+      </c>
+      <c r="C27">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>750</v>
+      </c>
+      <c r="B28">
+        <v>143.19999999999999</v>
+      </c>
+      <c r="C28">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>1000</v>
+      </c>
+      <c r="B29">
+        <v>185.1</v>
+      </c>
+      <c r="C29">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>2500</v>
+      </c>
+      <c r="B30">
+        <v>478.6</v>
+      </c>
+      <c r="C30">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>5000</v>
+      </c>
+      <c r="B31">
+        <v>1134.9000000000001</v>
+      </c>
+      <c r="C31">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>7500</v>
+      </c>
+      <c r="B32">
+        <v>1639.4</v>
+      </c>
+      <c r="C32">
+        <v>7500</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>10000</v>
+      </c>
+      <c r="B33">
+        <v>2481.6999999999998</v>
+      </c>
+      <c r="C33">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>6</v>
+      </c>
+      <c r="B36" t="s">
+        <v>8</v>
+      </c>
+      <c r="C36" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>0</v>
+      </c>
+      <c r="B37">
+        <v>65</v>
+      </c>
+      <c r="C37">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>5</v>
+      </c>
+      <c r="B38">
+        <v>67</v>
+      </c>
+      <c r="C38">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>10</v>
+      </c>
+      <c r="B39">
+        <v>59</v>
+      </c>
+      <c r="C39">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>15</v>
+      </c>
+      <c r="B40">
+        <v>62</v>
+      </c>
+      <c r="C40">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>20</v>
+      </c>
+      <c r="B41">
+        <v>57</v>
+      </c>
+      <c r="C41">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>25</v>
+      </c>
+      <c r="B42">
+        <v>55</v>
+      </c>
+      <c r="C42">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>30</v>
+      </c>
+      <c r="B43">
+        <v>51</v>
+      </c>
+      <c r="C43">
+        <v>43</v>
+      </c>
+      <c r="D43" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>35</v>
+      </c>
+      <c r="B44">
+        <v>47</v>
+      </c>
+      <c r="C44">
+        <v>40</v>
+      </c>
+      <c r="D44" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>40</v>
+      </c>
+      <c r="B45">
+        <v>51</v>
+      </c>
+      <c r="C45">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46">
+        <v>56</v>
+      </c>
+      <c r="C46">
+        <v>52</v>
+      </c>
+      <c r="D46" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>5</v>
+      </c>
+      <c r="B47">
+        <v>55</v>
+      </c>
+      <c r="C47">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>46</v>
+      </c>
+      <c r="B48">
+        <v>53</v>
+      </c>
+      <c r="C48">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>50</v>
+      </c>
+      <c r="B49">
+        <v>75</v>
+      </c>
+      <c r="C49">
+        <v>32</v>
+      </c>
+      <c r="D49" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>55</v>
+      </c>
+      <c r="B50">
+        <v>61</v>
+      </c>
+      <c r="C50">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>60</v>
+      </c>
+      <c r="B51">
+        <v>60</v>
+      </c>
+      <c r="C51">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>65</v>
+      </c>
+      <c r="B52">
+        <v>75</v>
+      </c>
+      <c r="C52">
+        <v>47</v>
+      </c>
+      <c r="D52" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>70</v>
+      </c>
+      <c r="B53">
+        <v>80</v>
+      </c>
+      <c r="C53">
+        <v>53</v>
+      </c>
+      <c r="D53" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>75</v>
+      </c>
+      <c r="B54">
+        <v>63</v>
+      </c>
+      <c r="C54">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>80</v>
+      </c>
+      <c r="B55">
+        <v>65</v>
+      </c>
+      <c r="C55">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>85</v>
+      </c>
+      <c r="B56">
+        <v>77</v>
+      </c>
+      <c r="C56">
+        <v>30</v>
+      </c>
+      <c r="D56" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>90</v>
+      </c>
+      <c r="B57">
+        <v>71</v>
+      </c>
+      <c r="C57">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>16</v>
+      </c>
+      <c r="B58">
+        <v>86</v>
+      </c>
+      <c r="C58">
+        <v>49</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{05C60535-1F16-4fd2-B633-F4F36F0B64E0}">
+      <x14:sparklineGroups xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+        <x14:sparklineGroup displayEmptyCellsAs="gap">
+          <x14:colorSeries rgb="FF376092"/>
+          <x14:colorNegative rgb="FFD00000"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers rgb="FFD00000"/>
+          <x14:colorFirst rgb="FFD00000"/>
+          <x14:colorLast rgb="FFD00000"/>
+          <x14:colorHigh rgb="FFD00000"/>
+          <x14:colorLow rgb="FFD00000"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>Аркуш1!B25:B25</xm:f>
+              <xm:sqref>A25</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Аркуш1!B26:B26</xm:f>
+              <xm:sqref>A26</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Аркуш1!B27:B27</xm:f>
+              <xm:sqref>A27</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Аркуш1!B28:B28</xm:f>
+              <xm:sqref>A28</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Аркуш1!B29:B29</xm:f>
+              <xm:sqref>A29</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Аркуш1!B30:B30</xm:f>
+              <xm:sqref>A30</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Аркуш1!B31:B31</xm:f>
+              <xm:sqref>A31</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Аркуш1!B32:B32</xm:f>
+              <xm:sqref>A32</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Аркуш1!B33:B33</xm:f>
+              <xm:sqref>A33</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
+        <x14:sparklineGroup displayEmptyCellsAs="gap">
+          <x14:colorSeries rgb="FF376092"/>
+          <x14:colorNegative rgb="FFD00000"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers rgb="FFD00000"/>
+          <x14:colorFirst rgb="FFD00000"/>
+          <x14:colorLast rgb="FFD00000"/>
+          <x14:colorHigh rgb="FFD00000"/>
+          <x14:colorLow rgb="FFD00000"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>Аркуш1!D25:D25</xm:f>
+              <xm:sqref>C25</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Аркуш1!D26:D26</xm:f>
+              <xm:sqref>C26</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Аркуш1!D27:D27</xm:f>
+              <xm:sqref>C27</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Аркуш1!D28:D28</xm:f>
+              <xm:sqref>C28</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Аркуш1!D29:D29</xm:f>
+              <xm:sqref>C29</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Аркуш1!D30:D30</xm:f>
+              <xm:sqref>C30</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Аркуш1!D31:D31</xm:f>
+              <xm:sqref>C31</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Аркуш1!D32:D32</xm:f>
+              <xm:sqref>C32</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Аркуш1!D33:D33</xm:f>
+              <xm:sqref>C33</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
+      </x14:sparklineGroups>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/графики.xlsx
+++ b/графики.xlsx
@@ -2,20 +2,13 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+  <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Аркуш1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Аркуш1!$A$37:$A$58</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Аркуш1!$B$36</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Аркуш1!$B$37:$B$58</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Аркуш1!$C$36</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">Аркуш1!$C$37:$C$58</definedName>
-  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -26,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="19">
   <si>
     <t>Наївний Баєс</t>
   </si>
@@ -78,18 +71,31 @@
   <si>
     <t>Фінал</t>
   </si>
+  <si>
+    <t>Позитивні</t>
+  </si>
+  <si>
+    <t>Негативні</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
     </font>
   </fonts>
   <fills count="2">
@@ -100,7 +106,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -108,13 +114,77 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -177,6 +247,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -266,6 +337,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -544,6 +616,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -633,6 +706,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -1812,6 +1886,436 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx2"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU"/>
+              <a:t>Відгук на фільм</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx2"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.30841235274000456"/>
+          <c:y val="0.14274760696445307"/>
+          <c:w val="0.42166836652476769"/>
+          <c:h val="0.68160429837973779"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Аркуш1!$A$63</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>156</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent6">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent6">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent6">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000002-0A23-4462-ACE4-4ACA7CEAA4C9}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent5">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent5">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent5">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-0A23-4462-ACE4-4ACA7CEAA4C9}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.10510009052979526"/>
+                  <c:y val="-0.15972631337337348"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{5D589A43-DCC0-4D5F-B76D-2E56D1A59541}" type="PERCENTAGE">
+                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:pPr/>
+                      <a:t>[ПРОЦЕНТ]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="ru-RU"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000002-0A23-4462-ACE4-4ACA7CEAA4C9}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="9.1812066121178273E-2"/>
+                  <c:y val="9.3466241854889984E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{E12309AA-139D-4733-BD8F-F39CCA8D8806}" type="PERCENTAGE">
+                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:pPr/>
+                      <a:t>[ПРОЦЕНТ]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="ru-RU"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-0A23-4462-ACE4-4ACA7CEAA4C9}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx2"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="ru-RU"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="inEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525">
+                  <a:solidFill>
+                    <a:schemeClr val="tx2">
+                      <a:lumMod val="35000"/>
+                      <a:lumOff val="65000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Аркуш1!$B$62:$C$62</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Позитивні</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Негативні</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Аркуш1!$B$63:$C$63</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>113</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>43</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0A23-4462-ACE4-4ACA7CEAA4C9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="inEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="1"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx2"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx2">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -1932,6 +2436,43 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="13">
+  <a:schemeClr val="accent6"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent4"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -3433,6 +3974,474 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="255">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk2">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="31750" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700">
+        <a:solidFill>
+          <a:schemeClr val="lt2"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
   </cs:wall>
 </cs:chartStyle>
@@ -3448,10 +4457,10 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>366711</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>257735</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3478,10 +4487,10 @@
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>257175</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>168088</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>22412</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3502,16 +4511,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>-1</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>89647</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>582706</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>156882</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>493060</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>22411</xdr:rowOff>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>470648</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>89646</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3530,13 +4539,43 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>80762</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>59121</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>459829</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>97606</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Диаграмма 7"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
-    <a:clrScheme name="Стандартная">
+    <a:clrScheme name="Office 2007-2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -3544,34 +4583,34 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="1F497D"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="EEECE1"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4F81BD"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="C0504D"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="9BBB59"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="8064A2"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="4BACC6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="F79646"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
@@ -3796,10 +4835,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D58"/>
+  <dimension ref="A1:D63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N35" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="T56" sqref="T56"/>
+    <sheetView tabSelected="1" topLeftCell="E56" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="M63" sqref="M63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4259,6 +5298,27 @@
         <v>49</v>
       </c>
     </row>
+    <row r="61" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="62" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="2"/>
+      <c r="B62" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="4">
+        <v>156</v>
+      </c>
+      <c r="B63" s="5">
+        <v>113</v>
+      </c>
+      <c r="C63" s="5">
+        <v>43</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -4266,6 +5326,54 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{05C60535-1F16-4fd2-B633-F4F36F0B64E0}">
       <x14:sparklineGroups xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+        <x14:sparklineGroup displayEmptyCellsAs="gap">
+          <x14:colorSeries rgb="FF376092"/>
+          <x14:colorNegative rgb="FFD00000"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers rgb="FFD00000"/>
+          <x14:colorFirst rgb="FFD00000"/>
+          <x14:colorLast rgb="FFD00000"/>
+          <x14:colorHigh rgb="FFD00000"/>
+          <x14:colorLow rgb="FFD00000"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>Аркуш1!D25:D25</xm:f>
+              <xm:sqref>C25</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Аркуш1!D26:D26</xm:f>
+              <xm:sqref>C26</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Аркуш1!D27:D27</xm:f>
+              <xm:sqref>C27</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Аркуш1!D28:D28</xm:f>
+              <xm:sqref>C28</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Аркуш1!D29:D29</xm:f>
+              <xm:sqref>C29</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Аркуш1!D30:D30</xm:f>
+              <xm:sqref>C30</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Аркуш1!D31:D31</xm:f>
+              <xm:sqref>C31</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Аркуш1!D32:D32</xm:f>
+              <xm:sqref>C32</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Аркуш1!D33:D33</xm:f>
+              <xm:sqref>C33</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
         <x14:sparklineGroup displayEmptyCellsAs="gap">
           <x14:colorSeries rgb="FF376092"/>
           <x14:colorNegative rgb="FFD00000"/>
@@ -4314,54 +5422,6 @@
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
-        <x14:sparklineGroup displayEmptyCellsAs="gap">
-          <x14:colorSeries rgb="FF376092"/>
-          <x14:colorNegative rgb="FFD00000"/>
-          <x14:colorAxis rgb="FF000000"/>
-          <x14:colorMarkers rgb="FFD00000"/>
-          <x14:colorFirst rgb="FFD00000"/>
-          <x14:colorLast rgb="FFD00000"/>
-          <x14:colorHigh rgb="FFD00000"/>
-          <x14:colorLow rgb="FFD00000"/>
-          <x14:sparklines>
-            <x14:sparkline>
-              <xm:f>Аркуш1!D25:D25</xm:f>
-              <xm:sqref>C25</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Аркуш1!D26:D26</xm:f>
-              <xm:sqref>C26</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Аркуш1!D27:D27</xm:f>
-              <xm:sqref>C27</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Аркуш1!D28:D28</xm:f>
-              <xm:sqref>C28</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Аркуш1!D29:D29</xm:f>
-              <xm:sqref>C29</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Аркуш1!D30:D30</xm:f>
-              <xm:sqref>C30</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Аркуш1!D31:D31</xm:f>
-              <xm:sqref>C31</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Аркуш1!D32:D32</xm:f>
-              <xm:sqref>C32</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Аркуш1!D33:D33</xm:f>
-              <xm:sqref>C33</xm:sqref>
-            </x14:sparkline>
-          </x14:sparklines>
-        </x14:sparklineGroup>
       </x14:sparklineGroups>
     </ext>
   </extLst>

--- a/графики.xlsx
+++ b/графики.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="21">
   <si>
     <t>Наївний Баєс</t>
   </si>
@@ -77,12 +77,18 @@
   <si>
     <t>Негативні</t>
   </si>
+  <si>
+    <t>Кількість тестових записів</t>
+  </si>
+  <si>
+    <t>Час, в мілісекундах</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -97,6 +103,13 @@
       <family val="1"/>
       <charset val="204"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -106,7 +119,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -166,11 +179,63 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFBFBFBF"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFBFBFBF"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFBFBFBF"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFBFBFBF"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FFBFBFBF"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFBFBFBF"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFBFBFBF"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFBFBFBF"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFBFBFBF"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFBFBFBF"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FFBFBFBF"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFBFBFBF"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -184,6 +249,18 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2190,9 +2267,7 @@
               </c:spPr>
             </c:leaderLines>
             <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
-              </c:ext>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
             </c:extLst>
           </c:dLbls>
           <c:cat>
@@ -2290,6 +2365,851 @@
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
         <a:schemeClr val="tx2">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Аркуш1!$A$77:$A$85</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>750</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7500</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Аркуш1!$B$77:$B$85</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>18.399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>52.3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>94.6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>143.19999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>185.1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>478.6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1134.9000000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1639.4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2481.6999999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7CAD-4642-8612-96AFA8CCDCBC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="3543407"/>
+        <c:axId val="3545071"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="3543407"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="3545071"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="3545071"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="3543407"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="uk-UA" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Час роботи класифікаторів</a:t>
+            </a:r>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="ru-RU"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>Аркуш1!$A$77:$A$85</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>750</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7500</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Аркуш1!$B$77:$B$85</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>18.399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>52.3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>94.6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>143.19999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>185.1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>478.6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1134.9000000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1639.4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2481.6999999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-DD79-4921-A580-A3F186801682}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="2033217855"/>
+        <c:axId val="2033216191"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="2033217855"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU"/>
+                  <a:t>Кількість тестових записів</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2033216191"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2033216191"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU"/>
+                  <a:t>Час, в мілісекундах</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2033217855"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
           <a:lumMod val="15000"/>
           <a:lumOff val="85000"/>
         </a:schemeClr>
@@ -2473,6 +3393,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -4443,6 +5443,1025 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx2"/>
     </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
   </cs:wall>
 </cs:chartStyle>
 </file>
@@ -4542,15 +6561,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>80762</xdr:colOff>
-      <xdr:row>58</xdr:row>
-      <xdr:rowOff>59121</xdr:rowOff>
+      <xdr:colOff>39941</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>167978</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>459829</xdr:colOff>
-      <xdr:row>70</xdr:row>
-      <xdr:rowOff>97606</xdr:rowOff>
+      <xdr:colOff>419008</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>15963</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4564,6 +6583,66 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>979715</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>166007</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>544286</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>201385</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Диаграмма 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>489856</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>97971</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>163285</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>214992</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Диаграмма 4"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -4835,10 +6914,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D63"/>
+  <dimension ref="A1:D85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E56" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="M63" sqref="M63"/>
+    <sheetView tabSelected="1" topLeftCell="B68" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B76" sqref="B76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5319,6 +7398,87 @@
         <v>43</v>
       </c>
     </row>
+    <row r="75" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="76" spans="1:2" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B76" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="8">
+        <v>100</v>
+      </c>
+      <c r="B77" s="9">
+        <v>18.399999999999999</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="8">
+        <v>250</v>
+      </c>
+      <c r="B78" s="9">
+        <v>52.3</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A79" s="8">
+        <v>500</v>
+      </c>
+      <c r="B79" s="9">
+        <v>94.6</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A80" s="8">
+        <v>750</v>
+      </c>
+      <c r="B80" s="9">
+        <v>143.19999999999999</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A81" s="8">
+        <v>1000</v>
+      </c>
+      <c r="B81" s="9">
+        <v>185.1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A82" s="8">
+        <v>2500</v>
+      </c>
+      <c r="B82" s="9">
+        <v>478.6</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A83" s="8">
+        <v>5000</v>
+      </c>
+      <c r="B83" s="9">
+        <v>1134.9000000000001</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A84" s="8">
+        <v>7500</v>
+      </c>
+      <c r="B84" s="9">
+        <v>1639.4</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A85" s="8">
+        <v>10000</v>
+      </c>
+      <c r="B85" s="9">
+        <v>2481.6999999999998</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -5326,6 +7486,54 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{05C60535-1F16-4fd2-B633-F4F36F0B64E0}">
       <x14:sparklineGroups xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+        <x14:sparklineGroup displayEmptyCellsAs="gap">
+          <x14:colorSeries rgb="FF376092"/>
+          <x14:colorNegative rgb="FFD00000"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers rgb="FFD00000"/>
+          <x14:colorFirst rgb="FFD00000"/>
+          <x14:colorLast rgb="FFD00000"/>
+          <x14:colorHigh rgb="FFD00000"/>
+          <x14:colorLow rgb="FFD00000"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>Аркуш1!B25:B25</xm:f>
+              <xm:sqref>A25</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Аркуш1!B26:B26</xm:f>
+              <xm:sqref>A26</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Аркуш1!B27:B27</xm:f>
+              <xm:sqref>A27</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Аркуш1!B28:B28</xm:f>
+              <xm:sqref>A28</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Аркуш1!B29:B29</xm:f>
+              <xm:sqref>A29</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Аркуш1!B30:B30</xm:f>
+              <xm:sqref>A30</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Аркуш1!B31:B31</xm:f>
+              <xm:sqref>A31</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Аркуш1!B32:B32</xm:f>
+              <xm:sqref>A32</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Аркуш1!B33:B33</xm:f>
+              <xm:sqref>A33</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
         <x14:sparklineGroup displayEmptyCellsAs="gap">
           <x14:colorSeries rgb="FF376092"/>
           <x14:colorNegative rgb="FFD00000"/>
@@ -5374,54 +7582,6 @@
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
-        <x14:sparklineGroup displayEmptyCellsAs="gap">
-          <x14:colorSeries rgb="FF376092"/>
-          <x14:colorNegative rgb="FFD00000"/>
-          <x14:colorAxis rgb="FF000000"/>
-          <x14:colorMarkers rgb="FFD00000"/>
-          <x14:colorFirst rgb="FFD00000"/>
-          <x14:colorLast rgb="FFD00000"/>
-          <x14:colorHigh rgb="FFD00000"/>
-          <x14:colorLow rgb="FFD00000"/>
-          <x14:sparklines>
-            <x14:sparkline>
-              <xm:f>Аркуш1!B25:B25</xm:f>
-              <xm:sqref>A25</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Аркуш1!B26:B26</xm:f>
-              <xm:sqref>A26</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Аркуш1!B27:B27</xm:f>
-              <xm:sqref>A27</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Аркуш1!B28:B28</xm:f>
-              <xm:sqref>A28</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Аркуш1!B29:B29</xm:f>
-              <xm:sqref>A29</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Аркуш1!B30:B30</xm:f>
-              <xm:sqref>A30</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Аркуш1!B31:B31</xm:f>
-              <xm:sqref>A31</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Аркуш1!B32:B32</xm:f>
-              <xm:sqref>A32</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Аркуш1!B33:B33</xm:f>
-              <xm:sqref>A33</xm:sqref>
-            </x14:sparkline>
-          </x14:sparklines>
-        </x14:sparklineGroup>
       </x14:sparklineGroups>
     </ext>
   </extLst>
